--- a/data/case1/14/P1_5.xlsx
+++ b/data/case1/14/P1_5.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.30630694952255055</v>
+        <v>0.35303951102532949</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.055305137553499861</v>
+        <v>-0.081372064400113686</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999990846969524</v>
+        <v>-0.0089999997028584744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.061991409831495758</v>
+        <v>0.061996874631255139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.005999999104918885</v>
+        <v>-0.005999999708584447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999990828423222</v>
+        <v>-0.0059999996995330207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999998921838014</v>
+        <v>-0.019999999642971389</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999998913495354</v>
+        <v>-0.019999999638490529</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999990621468768</v>
+        <v>-0.0059999996881554551</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999990544881143</v>
+        <v>-0.0059999996834179115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999990705036907</v>
+        <v>-0.0044999996888073213</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.005999999052375582</v>
+        <v>-0.005999999681663315</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.005999999046979454</v>
+        <v>-0.0059999996765451868</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999998978391879</v>
+        <v>-0.01199999965138332</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999990460495312</v>
+        <v>-0.0059999996738531181</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.022829199745242335</v>
+        <v>-0.00599999967279774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999990429222549</v>
+        <v>-0.0059999996713617776</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999990084130843</v>
+        <v>-0.0089999996592649012</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999991064773077</v>
+        <v>-0.008999999708775519</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.008999999098170619</v>
+        <v>-0.0089999997020040468</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999990970746069</v>
+        <v>-0.0089999997006309229</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999990963871568</v>
+        <v>-0.044047235793157835</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.0089999990717357647</v>
+        <v>-0.0089999997001806165</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998673313499</v>
+        <v>-0.041999999565799584</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.090311239245255415</v>
+        <v>-0.041999999563474333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.005999999082323626</v>
+        <v>-0.0059999996995010463</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999990814310067</v>
+        <v>-0.0059999996990649507</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999990777699352</v>
+        <v>-0.0059999996976367598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999008567741</v>
+        <v>-0.011999999673374617</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.01999999891864368</v>
+        <v>-0.019999999641928223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.049471924435668058</v>
+        <v>-0.014999999662880015</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999998910572693</v>
+        <v>0.016721326461294872</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999990794237235</v>
+        <v>0.017392593645193521</v>
       </c>
     </row>
   </sheetData>
